--- a/ig/minimal-r4/branch/main/StructureDefinition-r4-patient.xlsx
+++ b/ig/minimal-r4/branch/main/StructureDefinition-r4-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T00:32:19+00:00</t>
+    <t>2022-06-07T17:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
